--- a/Semester_3/Biology_Practicals/Observations/For_gen3_Oct29_Light.xlsx
+++ b/Semester_3/Biology_Practicals/Observations/For_gen3_Oct29_Light.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9675" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
   <si>
     <t>Vial 2 G3</t>
   </si>
@@ -392,15 +392,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,15 +408,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -426,8 +432,19 @@
       <c r="C3">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>SUM(B3,B6,B9)</f>
+        <v>63</v>
+      </c>
+      <c r="H3">
+        <f>SUM(C3,C6,C9)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -437,8 +454,19 @@
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f>SUM(B4,B7,B10)</f>
+        <v>49</v>
+      </c>
+      <c r="H4">
+        <f>SUM(C4,C7,C10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -452,7 +480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -463,7 +491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -477,7 +505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -495,28 +523,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -526,8 +560,19 @@
       <c r="C3">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>SUM(B3,B6)</f>
+        <v>28</v>
+      </c>
+      <c r="H3">
+        <f>SUM(C3,C6)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -537,8 +582,19 @@
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f>SUM(B4,B7)</f>
+        <v>29</v>
+      </c>
+      <c r="H4">
+        <f>SUM(C4,C7)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -552,7 +608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -570,28 +626,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -601,8 +663,19 @@
       <c r="C3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f>SUM(B3,B6)</f>
+        <v>35</v>
+      </c>
+      <c r="J3">
+        <f>SUM(C3,C6)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -612,8 +685,19 @@
       <c r="C4">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <f>SUM(B4,B7)</f>
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <f>SUM(C4,C7)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>19</v>
       </c>
@@ -624,7 +708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>7</v>
       </c>
@@ -639,28 +723,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -670,8 +760,19 @@
       <c r="C3">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>SUM(B3,B6)</f>
+        <v>57</v>
+      </c>
+      <c r="H3">
+        <f>SUM(C3,C6)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -681,8 +782,19 @@
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f>SUM(B4,B7)</f>
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <f>SUM(C4,C7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -696,7 +808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
